--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -461,12 +461,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">RO-CORE  </t>
+          <t>RO-CORE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ro/core.owl</t>
+          <t xml:space="preserve">http://purl.obolibrary.org/obo/ro/core.owl </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -665,11 +665,7 @@
           <t>http://purl.obolibrary.org/obo/envo.owl</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064]</t>
@@ -741,12 +737,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OMRSE</t>
+          <t>PDRO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/omrse.owl</t>
+          <t>http://purl.obolibrary.org/obo/pdro.owl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -756,7 +752,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; residential facility [OMRSE:00000191]; healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; hospice facility [OMRSE:00000104]; rehabilitation facility [OMRSE:00000106]; school facility [OMRSE:00000064]</t>
+          <t>pharmacy facility [PDRO:0000074]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -767,31 +763,11 @@
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PDRO</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/pdro.owl</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>pharmacy facility [PDRO:0000074]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test2</t>
         </is>
       </c>
     </row>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>test2</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,7 +543,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -572,7 +570,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -600,7 +597,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -628,7 +624,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,7 +651,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -684,7 +678,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -712,7 +705,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -740,7 +732,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -768,7 +759,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>test3</t>
         </is>
       </c>
     </row>
@@ -516,6 +516,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -543,6 +544,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -570,6 +572,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -597,6 +600,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,6 +628,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -651,6 +656,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,6 +684,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -705,6 +712,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -732,6 +740,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -759,6 +768,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -786,6 +796,7 @@
           <t>all</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
